--- a/Data/Processing/2024-02-02/HAPPSTMNDS.xlsx
+++ b/Data/Processing/2024-02-02/HAPPSTMNDS.xlsx
@@ -1519,7 +1519,7 @@
         <v>863.35</v>
       </c>
       <c r="D20">
-        <v>843.97</v>
+        <v>843.98</v>
       </c>
       <c r="E20">
         <v>851.63</v>
@@ -1549,7 +1549,7 @@
         <v>-1.35</v>
       </c>
       <c r="N20">
-        <v>2.29</v>
+        <v>2.28</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>806.92</v>
       </c>
       <c r="D46">
-        <v>800.8099999999999</v>
+        <v>800.8</v>
       </c>
       <c r="E46">
         <v>804.1799999999999</v>
